--- a/losers.xlsx
+++ b/losers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>volume</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chart_link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -451,12 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FTTUSDT</t>
+          <t>BLURUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$165,868,043</t>
+          <t>$750,386,149</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -466,12 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RUNEUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$229,111,102</t>
+          <t>$135,374,136</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -481,12 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>RUNEUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$144,622,082</t>
+          <t>$239,120,772</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -496,12 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KLAYUSDT</t>
+          <t>LDOUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$52,653,340</t>
+          <t>$98,368,593</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -511,12 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>RPLUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$127,112,688</t>
+          <t>$5,651,008</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -526,12 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IMXUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$99,129,469</t>
+          <t>$127,539,018</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -541,12 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>ETHDYDXUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$73,679,230</t>
+          <t>$140,417,675</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -556,12 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKBUSDT</t>
+          <t>RNDRUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$8,469,102</t>
+          <t>$95,999,994</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -571,12 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>APEUSDT</t>
+          <t>IMXUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$50,634,191</t>
+          <t>$77,906,112</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -586,12 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HTUSDT</t>
+          <t>GMXUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$36,579,895</t>
+          <t>$18,635,492</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -601,12 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$80,559,817</t>
+          <t>$129,835,186</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -616,12 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>LEOUSDT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$82,239,580</t>
+          <t>$742,543</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -631,12 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XAUtUSDT</t>
+          <t>HTUSDT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$8,667,477</t>
+          <t>$30,289,728</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -646,12 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TWTUSDT</t>
+          <t>MATICUSDT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$19,527,009</t>
+          <t>$482,104,470</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -661,12 +736,317 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$84,219,406</t>
+          <t>$422,717,218</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ETHUSDT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$9,709,793,944</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UNIUSDT</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$157,678,377</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MKRUSDT</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$75,369,884</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CAKEUSDT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$102,896,368</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IOTAUSDT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$10,471,551</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ARUSDT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$8,941,667</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BNBUSDT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$656,819,515</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FXSUSDT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$24,508,248</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EGLDUSDT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$48,870,247</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NEOUSDT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$61,879,321</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FTTUSDT</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$112,918,861</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SOLUSDT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$1,355,749,424</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TWTUSDT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$23,614,160</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ETCUSDT</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$144,797,617</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CRVUSDT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$55,573,041</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>

--- a/losers.xlsx
+++ b/losers.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$750,386,149</t>
+          <t>$755,940,485</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ABLURUSDT</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>LDOUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$135,374,136</t>
+          <t>$98,050,604</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ALDOUSDT</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RUNEUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$239,120,772</t>
+          <t>$135,972,571</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AGASUSDT</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LDOUSDT</t>
+          <t>RUNEUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$98,368,593</t>
+          <t>$238,878,864</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ARUNEUSDT</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$5,651,008</t>
+          <t>$5,696,646</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ARPLUSDT</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$127,539,018</t>
+          <t>$127,468,337</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AOPUSDT</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$140,417,675</t>
+          <t>$141,485,537</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AETHDYDXUSDT</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$95,999,994</t>
+          <t>$96,017,809</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ARNDRUSDT</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IMXUSDT</t>
+          <t>UNIUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$77,906,112</t>
+          <t>$155,420,203</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AUNIUSDT</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GMXUSDT</t>
+          <t>IMXUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$18,635,492</t>
+          <t>$78,195,953</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AIMXUSDT</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>GMXUSDT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$129,835,186</t>
+          <t>$18,718,725</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AGMXUSDT</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LEOUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$742,543</t>
+          <t>$424,187,938</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AAVAXUSDT</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HTUSDT</t>
+          <t>MATICUSDT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$30,289,728</t>
+          <t>$481,786,801</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AMATICUSDT</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MATICUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$482,104,470</t>
+          <t>$129,720,053</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ATIAUSDT</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>HTUSDT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$422,717,218</t>
+          <t>$30,131,639</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AHTUSDT</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$9,709,793,944</t>
+          <t>$103,100,625</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ACAKEUSDT</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>LEOUSDT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$157,678,377</t>
+          <t>$748,564</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ALEOUSDT</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MKRUSDT</t>
+          <t>IOTAUSDT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$75,369,884</t>
+          <t>$10,511,370</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AIOTAUSDT</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$102,896,368</t>
+          <t>$9,653,902,965</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AETHUSDT</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IOTAUSDT</t>
+          <t>MKRUSDT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$10,471,551</t>
+          <t>$75,261,270</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AMKRUSDT</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ARUSDT</t>
+          <t>FTTUSDT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$8,941,667</t>
+          <t>$113,156,189</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AFTTUSDT</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>TWTUSDT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$656,819,515</t>
+          <t>$24,310,946</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ATWTUSDT</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FXSUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$24,508,248</t>
+          <t>$1,357,572,497</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ASOLUSDT</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EGLDUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$48,870,247</t>
+          <t>$61,746,278</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ANEOUSDT</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$61,879,321</t>
+          <t>$655,653,154</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ABNBUSDT</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FTTUSDT</t>
+          <t>CRVUSDT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$112,918,861</t>
+          <t>$55,560,883</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ACRVUSDT</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>EGLDUSDT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,355,749,424</t>
+          <t>$48,974,156</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AEGLDUSDT</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TWTUSDT</t>
+          <t>TONUSDT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$23,614,160</t>
+          <t>$41,017,508</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ATONUSDT</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$144,797,617</t>
+          <t>$144,436,354</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AETCUSDT</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CRVUSDT</t>
+          <t>ARUSDT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$55,573,041</t>
+          <t>$8,886,386</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AARUSDT</t>
         </is>
       </c>
     </row>
